--- a/Code/Results/Cases/Case_2_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.48645240241863</v>
+        <v>16.95268254742742</v>
       </c>
       <c r="C2">
-        <v>13.68685777087974</v>
+        <v>10.33956478674064</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>6.391119676557267</v>
+        <v>11.24350756182025</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.07465372205564</v>
+        <v>3.62580386742632</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>11.07141029788699</v>
+        <v>20.70175417095843</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>7.426119046522301</v>
+        <v>9.838540640518739</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>11.89113401544558</v>
+        <v>20.49210851309509</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>22.85415244506898</v>
+        <v>16.24628824956904</v>
       </c>
       <c r="C3">
-        <v>13.01407050885856</v>
+        <v>10.04649336122663</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>6.484123445512874</v>
+        <v>11.29809135677969</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.080224587381823</v>
+        <v>3.627860660415128</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>11.5506156917939</v>
+        <v>20.8834278149412</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>7.151087760753587</v>
+        <v>9.80509080528485</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>12.08564870152432</v>
+        <v>20.64383027855501</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>21.79227845771574</v>
+        <v>15.79667531836929</v>
       </c>
       <c r="C4">
-        <v>12.58333074548897</v>
+        <v>9.861474472843913</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>6.546316772195284</v>
+        <v>11.33380998134811</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.083742540597013</v>
+        <v>3.629189396606039</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>11.85665064652437</v>
+        <v>21.00086010142192</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>6.980355926629151</v>
+        <v>9.786140003671576</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>12.22694039365573</v>
+        <v>20.74366010484443</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.3444763490795</v>
+        <v>15.6096928215235</v>
       </c>
       <c r="C5">
-        <v>12.40350170645697</v>
+        <v>9.784888190599567</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>6.572896468771686</v>
+        <v>11.34892005412873</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.085201347619555</v>
+        <v>3.629747480436254</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>11.98424569026598</v>
+        <v>21.05019668513818</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>6.91040954540954</v>
+        <v>9.778821959736915</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>12.28963213562287</v>
+        <v>20.78601398394929</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.269205978176</v>
+        <v>15.57842472853386</v>
       </c>
       <c r="C6">
-        <v>12.37338615674486</v>
+        <v>9.772101885486078</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>6.577383393978822</v>
+        <v>11.35146256466075</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.085445124451293</v>
+        <v>3.629841154769814</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>12.00560482501762</v>
+        <v>21.0584785669785</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>6.898775546444298</v>
+        <v>9.777631387443959</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>12.30034021341332</v>
+        <v>20.79314767019895</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>21.78630040857471</v>
+        <v>15.794168507789</v>
       </c>
       <c r="C7">
-        <v>12.58092271239444</v>
+        <v>9.860446301826565</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>6.546670289098487</v>
+        <v>11.33401151581888</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.083762111572419</v>
+        <v>3.629196855784404</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>11.85835985949591</v>
+        <v>21.00151946816858</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>6.979413976351263</v>
+        <v>9.786039665131053</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>12.2277656571358</v>
+        <v>20.7442245394877</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>23.93596083373561</v>
+        <v>16.71254478917237</v>
       </c>
       <c r="C8">
-        <v>13.45861759091241</v>
+        <v>10.23961582361588</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>6.422103623530082</v>
+        <v>11.26187076699818</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.076554779634945</v>
+        <v>3.626499412862518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>11.23413348698054</v>
+        <v>20.76317547646633</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>7.33172941163119</v>
+        <v>9.826680980781596</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>11.95342870895495</v>
+        <v>20.54303415475269</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>27.68224319220798</v>
+        <v>18.37870177805907</v>
       </c>
       <c r="C9">
-        <v>15.0350173802301</v>
+        <v>10.93949371664659</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>6.220365149150285</v>
+        <v>11.13787940807953</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.063159796185011</v>
+        <v>3.621729865856208</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>10.10882034537023</v>
+        <v>20.34235980871638</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>8.004128970798764</v>
+        <v>9.918722310672019</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>11.60713514704661</v>
+        <v>20.20168323683543</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.15437325156249</v>
+        <v>19.51080979415331</v>
       </c>
       <c r="C10">
-        <v>16.10020080380694</v>
+        <v>11.42294562107862</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>6.101342487501044</v>
+        <v>11.05742185901617</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.053717551054773</v>
+        <v>3.618539374463897</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>9.352301576350264</v>
+        <v>20.0614265514213</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>8.482636501181156</v>
+        <v>9.993508367258146</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>11.49585296557928</v>
+        <v>19.98365513837711</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.2194679986136</v>
+        <v>20.00423851367579</v>
       </c>
       <c r="C11">
-        <v>16.5639718528586</v>
+        <v>11.63546020595321</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>6.054334016882833</v>
+        <v>11.0231269719273</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.04949645421667</v>
+        <v>3.61715533074193</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>9.02674300704888</v>
+        <v>19.93972364911201</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>8.696271736185595</v>
+        <v>10.02900143208674</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>11.48218831282397</v>
+        <v>19.89165944931014</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31.61434820537348</v>
+        <v>20.18787642987294</v>
       </c>
       <c r="C12">
-        <v>16.73656977793581</v>
+        <v>11.71481444600791</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>6.037632368059031</v>
+        <v>11.01047182823723</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.047907620332506</v>
+        <v>3.616640856236738</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>8.906527647111368</v>
+        <v>19.8945123624522</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>8.776545237323663</v>
+        <v>10.0426458062475</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>11.48281298305965</v>
+        <v>19.85786328019083</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.52967767346856</v>
+        <v>20.14847119230311</v>
       </c>
       <c r="C13">
-        <v>16.69953251754869</v>
+        <v>11.69777473452929</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>6.041179241285381</v>
+        <v>11.01318259168423</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.048249394916283</v>
+        <v>3.616751229876138</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>8.932274316424035</v>
+        <v>19.90421053039708</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>8.75928532835988</v>
+        <v>10.03969830443602</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>11.48241293286182</v>
+        <v>19.86509549198718</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.25212371670463</v>
+        <v>20.01941147887221</v>
       </c>
       <c r="C14">
-        <v>16.57823229647434</v>
+        <v>11.64201147588076</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>6.052937487675716</v>
+        <v>11.02207917988095</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.049365553840448</v>
+        <v>3.617112811836188</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>9.016788705323057</v>
+        <v>19.93598656197769</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>8.702888642292788</v>
+        <v>10.03011992195337</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>11.48212074336813</v>
+        <v>19.88885812094433</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.08101695366042</v>
+        <v>19.93993727989219</v>
       </c>
       <c r="C15">
-        <v>16.5035380934334</v>
+        <v>11.60770742747694</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>6.060285205152816</v>
+        <v>11.02757178073831</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.050050450976514</v>
+        <v>3.617335544264807</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>9.068969142119713</v>
+        <v>19.95556420219273</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>8.668261426763376</v>
+        <v>10.02427920532811</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>11.48271119890694</v>
+        <v>19.90354915165165</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.08357872278686</v>
+        <v>19.47811910745471</v>
       </c>
       <c r="C16">
-        <v>16.06947085864301</v>
+        <v>11.40890336202216</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>6.104564330742916</v>
+        <v>11.05970950870657</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.05399481367294</v>
+        <v>3.61863117559301</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>9.373982843969218</v>
+        <v>20.06950263930043</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>8.468589604100446</v>
+        <v>9.991217780716445</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>11.49753130825391</v>
+        <v>19.98981249317445</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.45652033099707</v>
+        <v>19.18919894578245</v>
       </c>
       <c r="C17">
-        <v>15.79783282197731</v>
+        <v>11.28500472984418</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>6.133606162955302</v>
+        <v>11.08001551523757</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.056432827628513</v>
+        <v>3.619443212698585</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>9.566106776985272</v>
+        <v>20.14096016267161</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>8.345027784296008</v>
+        <v>9.971307342759637</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>11.51643611524216</v>
+        <v>20.04457793167508</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.09024685329828</v>
+        <v>19.02099459939225</v>
       </c>
       <c r="C18">
-        <v>15.63963834234367</v>
+        <v>11.21304694037497</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>6.15097715953643</v>
+        <v>11.09191200874709</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.057842164094106</v>
+        <v>3.619916614971101</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>9.67833151574024</v>
+        <v>20.18263441672717</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>8.273580035537121</v>
+        <v>9.959994473557131</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>11.53075951123326</v>
+        <v>20.07675353666595</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>28.9652669260611</v>
+        <v>18.96369934190985</v>
       </c>
       <c r="C19">
-        <v>15.58574179316254</v>
+        <v>11.18856574176348</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>6.156971077216698</v>
+        <v>11.0959772289947</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.058320584270254</v>
+        <v>3.620077991238598</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>9.71661401544098</v>
+        <v>20.19684319746678</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>8.249325607673679</v>
+        <v>9.956188252393646</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>11.53618678087109</v>
+        <v>20.08776352634435</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>29.52385121746995</v>
+        <v>19.22016543803575</v>
       </c>
       <c r="C20">
-        <v>15.8269518213095</v>
+        <v>11.29826625205958</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>6.13044507477248</v>
+        <v>11.07783144569273</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.056172574177862</v>
+        <v>3.619356114149039</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>9.545474314410853</v>
+        <v>20.13329401480448</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>8.358220653050754</v>
+        <v>9.973412503503672</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>11.51406307958595</v>
+        <v>20.03867804493622</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.33387644878742</v>
+        <v>20.05740743803832</v>
       </c>
       <c r="C21">
-        <v>16.61394332676428</v>
+        <v>11.65842131346575</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>6.049453354818433</v>
+        <v>11.01945703673136</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.04903745919466</v>
+        <v>3.617006345404281</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>8.991877862214988</v>
+        <v>19.9266294363843</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>8.719470999176353</v>
+        <v>10.03292785454466</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>11.48204537009626</v>
+        <v>19.88185016075156</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.46764351140529</v>
+        <v>20.58582690581253</v>
       </c>
       <c r="C22">
-        <v>17.11066661646981</v>
+        <v>11.88725130168308</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>6.002967008936436</v>
+        <v>10.98323875462478</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.044429671121685</v>
+        <v>3.615526760757674</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>8.648213221209387</v>
+        <v>19.79666152296078</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>8.951909120459327</v>
+        <v>10.07300935117363</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>11.49513676484358</v>
+        <v>19.78542297961118</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31.8669951294006</v>
+        <v>20.30554888744862</v>
       </c>
       <c r="C23">
-        <v>16.84717584817329</v>
+        <v>11.76573661837786</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>6.027162100033127</v>
+        <v>11.00239226717328</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.04688423843537</v>
+        <v>3.616311323482921</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>8.82981298561254</v>
+        <v>19.86556171819089</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>8.828199600215179</v>
+        <v>10.05151135520862</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>11.48488032678848</v>
+        <v>19.83633024323571</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.49342890164159</v>
+        <v>19.20617202028076</v>
       </c>
       <c r="C24">
-        <v>15.81379343006879</v>
+        <v>11.29227297755376</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>6.13187210743058</v>
+        <v>11.07881817109085</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.056290210731286</v>
+        <v>3.619395470992516</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>9.554796765421385</v>
+        <v>20.13675803488355</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>8.352257431937606</v>
+        <v>9.972460342639598</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>11.51512520510005</v>
+        <v>20.04134323422094</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>26.71842291693509</v>
+        <v>17.94350279923009</v>
       </c>
       <c r="C25">
-        <v>14.62462496248515</v>
+        <v>10.75528479249052</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>6.270067112963037</v>
+        <v>11.16955304072509</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.066709509648022</v>
+        <v>3.622964822933419</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>10.40181419792503</v>
+        <v>20.45123161349669</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>7.82468338121019</v>
+        <v>9.89253707789271</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>11.67764439578511</v>
+        <v>20.28829963459335</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_172/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_172/res_line/loading_percent.xlsx
@@ -421,28 +421,28 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>16.95268254742742</v>
+        <v>24.48645240241857</v>
       </c>
       <c r="C2">
-        <v>10.33956478674064</v>
+        <v>13.68685777087957</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>11.24350756182025</v>
+        <v>6.391119676557093</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.62580386742632</v>
+        <v>2.074653722055507</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>20.70175417095843</v>
+        <v>11.07141029788707</v>
       </c>
       <c r="J2">
         <v>0</v>
@@ -451,7 +451,7 @@
         <v>0</v>
       </c>
       <c r="L2">
-        <v>9.838540640518739</v>
+        <v>7.426119046522289</v>
       </c>
       <c r="M2">
         <v>0</v>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>20.49210851309509</v>
+        <v>11.89113401544575</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,28 +468,28 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.24628824956904</v>
+        <v>22.85415244506895</v>
       </c>
       <c r="C3">
-        <v>10.04649336122663</v>
+        <v>13.01407050885865</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>11.29809135677969</v>
+        <v>6.484123445512879</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.627860660415128</v>
+        <v>2.080224587382092</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>20.8834278149412</v>
+        <v>11.55061569179405</v>
       </c>
       <c r="J3">
         <v>0</v>
@@ -498,7 +498,7 @@
         <v>0</v>
       </c>
       <c r="L3">
-        <v>9.80509080528485</v>
+        <v>7.151087760753542</v>
       </c>
       <c r="M3">
         <v>0</v>
@@ -507,7 +507,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>20.64383027855501</v>
+        <v>12.08564870152447</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,28 +515,28 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>15.79667531836929</v>
+        <v>21.79227845771577</v>
       </c>
       <c r="C4">
-        <v>9.861474472843913</v>
+        <v>12.58333074548898</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>11.33380998134811</v>
+        <v>6.546316772195278</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.629189396606039</v>
+        <v>2.083742540597012</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>21.00086010142192</v>
+        <v>11.85665064652427</v>
       </c>
       <c r="J4">
         <v>0</v>
@@ -545,7 +545,7 @@
         <v>0</v>
       </c>
       <c r="L4">
-        <v>9.786140003671576</v>
+        <v>6.980355926629131</v>
       </c>
       <c r="M4">
         <v>0</v>
@@ -554,7 +554,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>20.74366010484443</v>
+        <v>12.22694039365565</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,28 +562,28 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.6096928215235</v>
+        <v>21.3444763490795</v>
       </c>
       <c r="C5">
-        <v>9.784888190599567</v>
+        <v>12.4035017064568</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>11.34892005412873</v>
+        <v>6.572896468771616</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.629747480436254</v>
+        <v>2.085201347619689</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>21.05019668513818</v>
+        <v>11.98424569026607</v>
       </c>
       <c r="J5">
         <v>0</v>
@@ -592,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="L5">
-        <v>9.778821959736915</v>
+        <v>6.91040954540953</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -601,7 +601,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>20.78601398394929</v>
+        <v>12.28963213562299</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,28 +609,28 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.57842472853386</v>
+        <v>21.26920597817596</v>
       </c>
       <c r="C6">
-        <v>9.772101885486078</v>
+        <v>12.37338615674484</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>11.35146256466075</v>
+        <v>6.577383393978768</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.629841154769814</v>
+        <v>2.085445124451158</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.0584785669785</v>
+        <v>12.00560482501775</v>
       </c>
       <c r="J6">
         <v>0</v>
@@ -639,7 +639,7 @@
         <v>0</v>
       </c>
       <c r="L6">
-        <v>9.777631387443959</v>
+        <v>6.898775546444237</v>
       </c>
       <c r="M6">
         <v>0</v>
@@ -648,7 +648,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>20.79314767019895</v>
+        <v>12.30034021341349</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,28 +656,28 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>15.794168507789</v>
+        <v>21.78630040857472</v>
       </c>
       <c r="C7">
-        <v>9.860446301826565</v>
+        <v>12.58092271239435</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>11.33401151581888</v>
+        <v>6.546670289098425</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.629196855784404</v>
+        <v>2.083762111572687</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>21.00151946816858</v>
+        <v>11.85835985949589</v>
       </c>
       <c r="J7">
         <v>0</v>
@@ -686,7 +686,7 @@
         <v>0</v>
       </c>
       <c r="L7">
-        <v>9.786039665131053</v>
+        <v>6.979413976351297</v>
       </c>
       <c r="M7">
         <v>0</v>
@@ -695,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>20.7442245394877</v>
+        <v>12.22776565713583</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,28 +703,28 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>16.71254478917237</v>
+        <v>23.93596083373563</v>
       </c>
       <c r="C8">
-        <v>10.23961582361588</v>
+        <v>13.45861759091253</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>11.26187076699818</v>
+        <v>6.422103623530136</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.626499412862518</v>
+        <v>2.076554779635213</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>20.76317547646633</v>
+        <v>11.23413348698044</v>
       </c>
       <c r="J8">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="L8">
-        <v>9.826680980781596</v>
+        <v>7.33172941163119</v>
       </c>
       <c r="M8">
         <v>0</v>
@@ -742,7 +742,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>20.54303415475269</v>
+        <v>11.95342870895485</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,28 +750,28 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>18.37870177805907</v>
+        <v>27.68224319220795</v>
       </c>
       <c r="C9">
-        <v>10.93949371664659</v>
+        <v>15.03501738023019</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.13787940807953</v>
+        <v>6.220365149150398</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.621729865856208</v>
+        <v>2.063159796185279</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>20.34235980871638</v>
+        <v>10.10882034537028</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -780,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.918722310672019</v>
+        <v>8.004128970798794</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.20168323683543</v>
+        <v>11.60713514704663</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,28 +797,28 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>19.51080979415331</v>
+        <v>30.15437325156246</v>
       </c>
       <c r="C10">
-        <v>11.42294562107862</v>
+        <v>16.10020080380707</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>11.05742185901617</v>
+        <v>6.101342487501148</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.618539374463897</v>
+        <v>2.053717551054773</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>20.0614265514213</v>
+        <v>9.352301576350291</v>
       </c>
       <c r="J10">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L10">
-        <v>9.993508367258146</v>
+        <v>8.482636501181176</v>
       </c>
       <c r="M10">
         <v>0</v>
@@ -836,7 +836,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>19.98365513837711</v>
+        <v>11.49585296557928</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,28 +844,28 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>20.00423851367579</v>
+        <v>31.21946799861359</v>
       </c>
       <c r="C11">
-        <v>11.63546020595321</v>
+        <v>16.56397185285866</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>11.0231269719273</v>
+        <v>6.054334016882936</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.61715533074193</v>
+        <v>2.04949645421667</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.93972364911201</v>
+        <v>9.026743007048823</v>
       </c>
       <c r="J11">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="L11">
-        <v>10.02900143208674</v>
+        <v>8.69627173618561</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>19.89165944931014</v>
+        <v>11.48218831282396</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,28 +891,28 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>20.18787642987294</v>
+        <v>31.6143482053734</v>
       </c>
       <c r="C12">
-        <v>11.71481444600791</v>
+        <v>16.73656977793577</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>11.01047182823723</v>
+        <v>6.037632368058984</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.616640856236738</v>
+        <v>2.047907620332372</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.8945123624522</v>
+        <v>8.906527647111579</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -921,7 +921,7 @@
         <v>0</v>
       </c>
       <c r="L12">
-        <v>10.0426458062475</v>
+        <v>8.776545237323671</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -930,7 +930,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>19.85786328019083</v>
+        <v>11.48281298305985</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,28 +938,28 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>20.14847119230311</v>
+        <v>31.52967767346861</v>
       </c>
       <c r="C13">
-        <v>11.69777473452929</v>
+        <v>16.69953251754839</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>11.01318259168423</v>
+        <v>6.041179241285343</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.616751229876138</v>
+        <v>2.048249394916016</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.90421053039708</v>
+        <v>8.932274316423927</v>
       </c>
       <c r="J13">
         <v>0</v>
@@ -968,7 +968,7 @@
         <v>0</v>
       </c>
       <c r="L13">
-        <v>10.03969830443602</v>
+        <v>8.759285328359939</v>
       </c>
       <c r="M13">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>19.86509549198718</v>
+        <v>11.48241293286182</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,28 +985,28 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>20.01941147887221</v>
+        <v>31.25212371670468</v>
       </c>
       <c r="C14">
-        <v>11.64201147588076</v>
+        <v>16.57823229647416</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>11.02207917988095</v>
+        <v>6.052937487675619</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.617112811836188</v>
+        <v>2.049365553840449</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.93598656197769</v>
+        <v>9.016788705323087</v>
       </c>
       <c r="J14">
         <v>0</v>
@@ -1015,7 +1015,7 @@
         <v>0</v>
       </c>
       <c r="L14">
-        <v>10.03011992195337</v>
+        <v>8.702888642292788</v>
       </c>
       <c r="M14">
         <v>0</v>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>19.88885812094433</v>
+        <v>11.48212074336821</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,28 +1032,28 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>19.93993727989219</v>
+        <v>31.08101695366046</v>
       </c>
       <c r="C15">
-        <v>11.60770742747694</v>
+        <v>16.50353809343345</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>11.02757178073831</v>
+        <v>6.060285205152765</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.617335544264807</v>
+        <v>2.05005045097638</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.95556420219273</v>
+        <v>9.068969142119579</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>10.02427920532811</v>
+        <v>8.66826142676334</v>
       </c>
       <c r="M15">
         <v>0</v>
@@ -1071,7 +1071,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>19.90354915165165</v>
+        <v>11.48271119890684</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,28 +1079,28 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>19.47811910745471</v>
+        <v>30.08357872278695</v>
       </c>
       <c r="C16">
-        <v>11.40890336202216</v>
+        <v>16.06947085864273</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>11.05970950870657</v>
+        <v>6.104564330742928</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.61863117559301</v>
+        <v>2.053994813672942</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>20.06950263930043</v>
+        <v>9.373982843969124</v>
       </c>
       <c r="J16">
         <v>0</v>
@@ -1109,7 +1109,7 @@
         <v>0</v>
       </c>
       <c r="L16">
-        <v>9.991217780716445</v>
+        <v>8.468589604100483</v>
       </c>
       <c r="M16">
         <v>0</v>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>19.98981249317445</v>
+        <v>11.4975313082539</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,28 +1126,28 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>19.18919894578245</v>
+        <v>29.45652033099695</v>
       </c>
       <c r="C17">
-        <v>11.28500472984418</v>
+        <v>15.79783282197739</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>11.08001551523757</v>
+        <v>6.133606162955303</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.619443212698585</v>
+        <v>2.056432827628512</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>20.14096016267161</v>
+        <v>9.566106776985531</v>
       </c>
       <c r="J17">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>9.971307342759637</v>
+        <v>8.345027784295974</v>
       </c>
       <c r="M17">
         <v>0</v>
@@ -1165,7 +1165,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>20.04457793167508</v>
+        <v>11.51643611524234</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,28 +1173,28 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>19.02099459939225</v>
+        <v>29.09024685329834</v>
       </c>
       <c r="C18">
-        <v>11.21304694037497</v>
+        <v>15.6396383423435</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>11.09191200874709</v>
+        <v>6.150977159536378</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.619916614971101</v>
+        <v>2.057842164093838</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>20.18263441672717</v>
+        <v>9.678331515740105</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1203,7 +1203,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>9.959994473557131</v>
+        <v>8.273580035537151</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.07675353666595</v>
+        <v>11.53075951123319</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,28 +1220,28 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>18.96369934190985</v>
+        <v>28.96526692606113</v>
       </c>
       <c r="C19">
-        <v>11.18856574176348</v>
+        <v>15.58574179316246</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>11.0959772289947</v>
+        <v>6.156971077216648</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.620077991238598</v>
+        <v>2.058320584269717</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>20.19684319746678</v>
+        <v>9.716614015440841</v>
       </c>
       <c r="J19">
         <v>0</v>
@@ -1250,7 +1250,7 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>9.956188252393646</v>
+        <v>8.249325607673686</v>
       </c>
       <c r="M19">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.08776352634435</v>
+        <v>11.53618678087102</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,28 +1267,28 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>19.22016543803575</v>
+        <v>29.52385121746996</v>
       </c>
       <c r="C20">
-        <v>11.29826625205958</v>
+        <v>15.8269518213095</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>11.07783144569273</v>
+        <v>6.130445074772388</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.619356114149039</v>
+        <v>2.056172574177996</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>20.13329401480448</v>
+        <v>9.545474314410928</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="L20">
-        <v>9.973412503503672</v>
+        <v>8.358220653050756</v>
       </c>
       <c r="M20">
         <v>0</v>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>20.03867804493622</v>
+        <v>11.51406307958604</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,28 +1314,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>20.05740743803832</v>
+        <v>31.33387644878739</v>
       </c>
       <c r="C21">
-        <v>11.65842131346575</v>
+        <v>16.61394332676415</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>11.01945703673136</v>
+        <v>6.049453354818396</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.617006345404281</v>
+        <v>2.049037459194929</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.9266294363843</v>
+        <v>8.991877862215292</v>
       </c>
       <c r="J21">
         <v>0</v>
@@ -1344,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="L21">
-        <v>10.03292785454466</v>
+        <v>8.719470999176353</v>
       </c>
       <c r="M21">
         <v>0</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>19.88185016075156</v>
+        <v>11.48204537009646</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,28 +1361,28 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>20.58582690581253</v>
+        <v>32.46764351140527</v>
       </c>
       <c r="C22">
-        <v>11.88725130168308</v>
+        <v>17.11066661646974</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>10.98323875462478</v>
+        <v>6.002967008936388</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.615526760757674</v>
+        <v>2.044429671121418</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.79666152296078</v>
+        <v>8.64821322120936</v>
       </c>
       <c r="J22">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>10.07300935117363</v>
+        <v>8.951909120459325</v>
       </c>
       <c r="M22">
         <v>0</v>
@@ -1400,7 +1400,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>19.78542297961118</v>
+        <v>11.49513676484365</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,28 +1408,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>20.30554888744862</v>
+        <v>31.86699512940062</v>
       </c>
       <c r="C23">
-        <v>11.76573661837786</v>
+        <v>16.84717584817315</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>11.00239226717328</v>
+        <v>6.027162100032974</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.616311323482921</v>
+        <v>2.046884238435371</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.86556171819089</v>
+        <v>8.829812985612556</v>
       </c>
       <c r="J23">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>10.05151135520862</v>
+        <v>8.828199600215166</v>
       </c>
       <c r="M23">
         <v>0</v>
@@ -1447,7 +1447,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>19.83633024323571</v>
+        <v>11.48488032678857</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,28 +1455,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>19.20617202028076</v>
+        <v>29.49342890164161</v>
       </c>
       <c r="C24">
-        <v>11.29227297755376</v>
+        <v>15.81379343006887</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>11.07881817109085</v>
+        <v>6.13187210743064</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.619395470992516</v>
+        <v>2.056290210731286</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>20.13675803488355</v>
+        <v>9.554796765421536</v>
       </c>
       <c r="J24">
         <v>0</v>
@@ -1485,7 +1485,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>9.972460342639598</v>
+        <v>8.352257431937609</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>20.04134323422094</v>
+        <v>11.51512520510012</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,28 +1502,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>17.94350279923009</v>
+        <v>26.71842291693509</v>
       </c>
       <c r="C25">
-        <v>10.75528479249052</v>
+        <v>14.62462496248538</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.16955304072509</v>
+        <v>6.270067112963094</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.622964822933419</v>
+        <v>2.06670950964829</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>20.45123161349669</v>
+        <v>10.40181419792498</v>
       </c>
       <c r="J25">
         <v>0</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.89253707789271</v>
+        <v>7.824683381210172</v>
       </c>
       <c r="M25">
         <v>0</v>
@@ -1541,7 +1541,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.28829963459335</v>
+        <v>11.67764439578501</v>
       </c>
     </row>
   </sheetData>
